--- a/OutputFiles/TC05_Canine_Filter_Breed-Beagle_WebData.xlsx
+++ b/OutputFiles/TC05_Canine_Filter_Breed-Beagle_WebData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>Case ID</t>
   </si>
@@ -41,7 +41,16 @@
     <t>Neutered Status</t>
   </si>
   <si>
-    <t>COTC007B0211</t>
+    <t>Weight (kg)</t>
+  </si>
+  <si>
+    <t>Response to Treatment</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>COTC007B-0211</t>
   </si>
   <si>
     <t>COTC007B</t>
@@ -53,7 +62,7 @@
     <t>Beagle</t>
   </si>
   <si>
-    <t>Stage 3</t>
+    <t>Lymphoma</t>
   </si>
   <si>
     <t>III</t>
@@ -62,40 +71,76 @@
     <t>9.9</t>
   </si>
   <si>
-    <t>Castrated male</t>
-  </si>
-  <si>
-    <t>COTC007B0503</t>
-  </si>
-  <si>
-    <t>IIIA</t>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>NSC 725776; 9mg/m2/day</t>
+  </si>
+  <si>
+    <t>COTC007B-0503</t>
+  </si>
+  <si>
+    <t>IIIa</t>
   </si>
   <si>
     <t>11.5</t>
   </si>
   <si>
-    <t>Spayed female</t>
-  </si>
-  <si>
-    <t>COTC007B0510</t>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>NSC 725776; 3mg/m2/day</t>
+  </si>
+  <si>
+    <t>COTC007B-0510</t>
   </si>
   <si>
     <t>9.5</t>
   </si>
   <si>
-    <t>COTC007B0608</t>
-  </si>
-  <si>
-    <t>Stage 4</t>
-  </si>
-  <si>
-    <t>IVA</t>
+    <t>NSC 743400; 65mg/m2/day</t>
+  </si>
+  <si>
+    <t>COTC007B-0608</t>
+  </si>
+  <si>
+    <t>IVa</t>
   </si>
   <si>
     <t>4.2</t>
   </si>
   <si>
-    <t>NCATS-COP01CCB010045</t>
+    <t>NSC 743400; 40mg/m2/day</t>
+  </si>
+  <si>
+    <t>GLIOMA01-i_6561</t>
+  </si>
+  <si>
+    <t>GLIOMA01</t>
+  </si>
+  <si>
+    <t>Genomics</t>
+  </si>
+  <si>
+    <t>Glioma</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Not Determined</t>
+  </si>
+  <si>
+    <t>NCATS-COP01-CCB010045</t>
   </si>
   <si>
     <t>NCATS-COP01</t>
@@ -104,19 +149,13 @@
     <t>Transcriptomics</t>
   </si>
   <si>
-    <t>Lymphoma :: Stage 3</t>
-  </si>
-  <si>
-    <t/>
+    <t>T Cell Lymphoma</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -161,7 +200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -195,138 +234,239 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
